--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="B2:R10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -729,21 +729,17 @@
       <c r="K4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="L4" s="5">
+        <v>0.307</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.1208</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="8" t="s">
@@ -974,21 +970,21 @@
       <c r="K9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="4" t="e">
+      <c r="L9" s="4">
         <f>AVERAGE(L4:L8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="4" t="e">
+        <v>0.4284</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" ref="M9:O9" si="1">AVERAGE(M4:M8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="4" t="e">
+        <v>0.77060000000000006</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="4" t="e">
+        <v>0.12438000000000002</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>5.8459999999999998E-2</v>
       </c>
       <c r="P9" s="13" t="e">
         <f>AVERAGE(P4:P8)</f>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040"/>
+    <workbookView xWindow="240" yWindow="4180" windowWidth="23840" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -72,28 +72,28 @@
     <t>complete</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>gls</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>2014101701_Savitzky-Golay-Filted</t>
-  </si>
-  <si>
     <t>RMSE Test</t>
   </si>
   <si>
     <t>PB:</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>models_02Oct2014.Rdata</t>
   </si>
   <si>
     <t>SOC (gbm_SG)</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>svmRadial_[feature_engineer_FirstDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_location]_[timestamp_2014-10-21]</t>
   </si>
 </sst>
 </file>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R10"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -647,15 +647,12 @@
     <col min="18" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -670,103 +667,59 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>0.28499999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D4" s="5">
-        <v>0.93500000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E4" s="5">
-        <v>6.3299999999999995E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>1.6400000000000001E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>0.29389999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="6">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.307</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.1208</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:9">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.82299999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="D5" s="5">
-        <v>0.32</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E5" s="5">
-        <v>0.18099999999999999</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>0.11899999999999999</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>0.30780000000000002</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
@@ -774,244 +727,306 @@
       <c r="I5" s="6">
         <v>10</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.14410000000000001</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>0.34399999999999997</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D6" s="5">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E6" s="5">
-        <v>2.3599999999999999E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>1.84E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>0.27029999999999998</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.32800000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>0.89</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E7" s="5">
-        <v>2.4299999999999999E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>1.67E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>0.30780000000000002</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.878</v>
-      </c>
-      <c r="N7" s="5">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="O7" s="5">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0.34300000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="D8" s="5">
-        <v>0.91</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="E8" s="5">
-        <v>7.9299999999999995E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>0.31430000000000002</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="6">
-        <v>18</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="N8" s="15">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="O8" s="15">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
         <f>AVERAGE(C4:C8)</f>
-        <v>0.42460000000000003</v>
+        <v>0.42559999999999992</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
-        <v>0.78300000000000014</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>7.4299999999999991E-2</v>
+        <v>6.4519999999999994E-2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>4.1340000000000002E-2</v>
+        <v>3.5619999999999999E-2</v>
       </c>
       <c r="G9" s="4">
         <f>AVERAGE(G4:G8)</f>
-        <v>0.29881999999999997</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.55517000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="9" t="s">
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.307</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.1208</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.878</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E18" s="15">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="4">
-        <f>AVERAGE(L4:L8)</f>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
         <v>0.4284</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:O9" si="1">AVERAGE(M4:M8)</f>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:F19" si="1">AVERAGE(D14:D18)</f>
         <v>0.77060000000000006</v>
       </c>
-      <c r="N9" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>0.12438000000000002</v>
       </c>
-      <c r="O9" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>5.8459999999999998E-2</v>
       </c>
-      <c r="P9" s="13" t="e">
-        <f>AVERAGE(P4:P8)</f>
+      <c r="G19" s="13" t="e">
+        <f>AVERAGE(G14:G18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.55517000000000005</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
         <v>0.39276</v>
       </c>
-      <c r="R10" s="2">
+      <c r="I20" s="2">
         <v>0.9</v>
       </c>
     </row>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>SOC</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>svmRadial_[feature_engineer_FirstDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_location]_[timestamp_2014-10-21]</t>
+  </si>
+  <si>
+    <t>2014-10-21_[feature_engineer_FirstDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_</t>
   </si>
 </sst>
 </file>
@@ -246,8 +249,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -300,7 +305,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,6 +318,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -325,6 +331,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1030,6 +1037,204 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E25" s="5">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.93E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E28" s="5">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <f>AVERAGE(C24:C28)</f>
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:F29" si="2">AVERAGE(D24:D28)</f>
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3820000000000011E-2</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9260000000000003E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f>AVERAGE(G24:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.55517000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4180" windowWidth="23840" windowHeight="14960"/>
+    <workbookView xWindow="240" yWindow="4185" windowWidth="23835" windowHeight="14955"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>SOC</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>2014-10-21_[feature_engineer_FirstDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_</t>
+  </si>
+  <si>
+    <t>2014-10-21_[feature_engineer_none]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_TFTTT</t>
   </si>
 </sst>
 </file>
@@ -634,32 +637,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="2"/>
-    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
-    <col min="12" max="15" width="8.83203125" style="2"/>
-    <col min="16" max="16" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" style="2"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -683,7 +686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -709,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -735,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -761,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -787,7 +790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -813,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -844,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
@@ -852,12 +855,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -881,7 +884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -905,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -929,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -951,7 +954,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -973,7 +976,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1037,12 +1040,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1066,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -1227,11 +1230,199 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="11">
+        <v>0.55517000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.98E-2</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <f>AVERAGE(C34:C38)</f>
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39:F39" si="3">AVERAGE(D34:D38)</f>
+        <v>0.8348000000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9559999999999997E-2</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G39" s="4" t="e">
+        <f>AVERAGE(G34:G38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="11">
         <v>0.55517000000000005</v>
       </c>
     </row>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>SOC</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>2014-10-21_[feature_engineer_none]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_TFTTT</t>
+  </si>
+  <si>
+    <t>2014-10-21_[feature_engineer_SecondDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_TFTTT</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1426,6 +1429,194 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.434</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="E48" s="5">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4">
+        <f>AVERAGE(C44:C48)</f>
+        <v>0.49160000000000004</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ref="D49:F49" si="4">AVERAGE(D44:D48)</f>
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="4"/>
+        <v>7.2160000000000002E-2</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1459999999999997E-2</v>
+      </c>
+      <c r="G49" s="4" t="e">
+        <f>AVERAGE(G44:G48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.55517000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4185" windowWidth="23835" windowHeight="14955"/>
+    <workbookView xWindow="240" yWindow="4188" windowWidth="23832" windowHeight="14952"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>SOC</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>2014-10-21_[feature_engineer_SecondDerivatives]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]_TFTTT</t>
+  </si>
+  <si>
+    <t>gls</t>
   </si>
 </sst>
 </file>
@@ -640,32 +643,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I50"/>
+  <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" style="2"/>
-    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="10.88671875" style="2" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="17" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -688,8 +691,11 @@
       <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -714,8 +720,30 @@
       <c r="I4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -740,8 +768,22 @@
       <c r="I5" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -766,8 +808,30 @@
       <c r="I6" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.83E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5.67E-2</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -792,8 +856,22 @@
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -818,8 +896,22 @@
       <c r="I8" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -849,21 +941,64 @@
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="11">
         <v>0.55517000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="4">
+        <f>AVERAGE(M5:M9)</f>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:P10" si="1">AVERAGE(N5:N9)</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>6.83E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>5.67E-2</v>
+      </c>
+      <c r="Q10" s="4" t="e">
+        <f>AVERAGE(Q5:Q9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -887,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -911,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -935,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -957,7 +1092,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -979,7 +1114,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1012,15 +1147,15 @@
         <v>0.4284</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:F19" si="1">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
         <v>0.77060000000000006</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12438000000000002</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8459999999999998E-2</v>
       </c>
       <c r="G19" s="13" t="e">
@@ -1032,7 +1167,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1043,12 +1178,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1072,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -1211,15 +1346,15 @@
         <v>0.43159999999999998</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29:F29" si="2">AVERAGE(D24:D28)</f>
+        <f t="shared" ref="D29:F29" si="3">AVERAGE(D24:D28)</f>
         <v>0.83040000000000003</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3820000000000011E-2</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9260000000000003E-2</v>
       </c>
       <c r="G29" s="4">
@@ -1233,7 +1368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>19</v>
       </c>
@@ -1241,12 +1376,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -1270,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
@@ -1399,15 +1534,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" ref="D39:F39" si="3">AVERAGE(D34:D38)</f>
+        <f t="shared" ref="D39:F39" si="4">AVERAGE(D34:D38)</f>
         <v>0.8348000000000001</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9559999999999997E-2</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="G39" s="4" t="e">
@@ -1421,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>19</v>
       </c>
@@ -1429,12 +1564,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -1458,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
@@ -1587,15 +1722,15 @@
         <v>0.49160000000000004</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" ref="D49:F49" si="4">AVERAGE(D44:D48)</f>
+        <f t="shared" ref="D49:F49" si="5">AVERAGE(D44:D48)</f>
         <v>0.78139999999999998</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2160000000000002E-2</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1459999999999997E-2</v>
       </c>
       <c r="G49" s="4" t="e">
@@ -1609,7 +1744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>19</v>
       </c>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4188" windowWidth="23832" windowHeight="14952"/>
+    <workbookView xWindow="240" yWindow="4188" windowWidth="23832" windowHeight="14952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="30">
   <si>
     <t>SOC</t>
   </si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>gls</t>
+  </si>
+  <si>
+    <t>2014-10-22_[feature_engineer_SavitzkyGolay]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_location]</t>
   </si>
 </sst>
 </file>
@@ -645,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,4 +1765,210 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.27E-2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5720000000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="G9" s="4" t="e">
+        <f>AVERAGE(G4:G8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4188" windowWidth="23832" windowHeight="14952" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="4185" windowWidth="23835" windowHeight="14955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="31">
   <si>
     <t>SOC</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2014-10-22_[feature_engineer_SavitzkyGolay]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_location]</t>
+  </si>
+  <si>
+    <t>2014-10-22_[feature_engineer_SavitzkyGolay]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]</t>
   </si>
 </sst>
 </file>
@@ -653,26 +656,26 @@
       <selection activeCell="L3" sqref="L3:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="10.88671875" style="2" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="2"/>
-    <col min="16" max="17" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" style="2"/>
+    <col min="16" max="17" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -699,7 +702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -747,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -787,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -835,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -875,7 +878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -915,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -960,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
@@ -997,12 +1000,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -1026,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1121,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1174,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1182,12 +1185,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1211,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>19</v>
       </c>
@@ -1380,12 +1383,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -1409,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>19</v>
       </c>
@@ -1568,12 +1571,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -1597,7 +1600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>19</v>
       </c>
@@ -1769,19 +1772,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +1796,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1817,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1965,6 +1968,193 @@
         <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.1031</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9.64E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <f>AVERAGE(C13:C17)</f>
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:F18" si="1">AVERAGE(D13:D17)</f>
+        <v>0.83900000000000008</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>6.989999999999999E-2</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="G18" s="4" t="e">
+        <f>AVERAGE(G13:G17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/ivanliu1989_AfSIS_models_outcomes.xlsx
+++ b/ivanliu1989_AfSIS_models_outcomes.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4185" windowWidth="23835" windowHeight="14955" activeTab="1"/>
+    <workbookView xWindow="17700" yWindow="1740" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
   <si>
     <t>SOC</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>2014-10-22_[feature_engineer_SavitzkyGolay]_[fit_method_svmRadial]_[cv_repeats_10]_[cv_numbers_10]_[cv_method_row]</t>
+  </si>
+  <si>
+    <t>2014101703_Savitzky-Golay</t>
+  </si>
+  <si>
+    <t>2014101801_Raw-Data</t>
   </si>
 </sst>
 </file>
@@ -265,8 +272,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,7 +364,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +378,24 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -348,6 +409,24 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,7 +520,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,30 +731,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:S10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" style="2"/>
-    <col min="16" max="17" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
+    <col min="12" max="15" width="8.83203125" style="2"/>
+    <col min="16" max="17" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -702,7 +781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -750,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -790,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -838,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -878,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -918,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -963,7 +1042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1000,12 +1079,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -1029,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1178,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1200,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1253,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1185,12 +1264,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1214,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
@@ -1240,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="11" t="s">
         <v>19</v>
       </c>
@@ -1383,12 +1462,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -1412,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9">
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9">
       <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9">
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9">
       <c r="B38" s="9" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9">
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9">
       <c r="B40" s="11" t="s">
         <v>19</v>
       </c>
@@ -1571,12 +1650,12 @@
         <v>0.55517000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -1600,7 +1679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9">
       <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9">
       <c r="B45" s="9" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9">
       <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9">
       <c r="B47" s="9" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9">
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="11" t="s">
         <v>19</v>
       </c>
@@ -1772,19 +1851,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1796,7 +1875,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1820,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +1971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +1995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +2019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +2050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +2062,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -2007,7 +2086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2055,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2158,7 +2237,286 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.27E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E9" s="15">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.254</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.16619999999999999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.873</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.317</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>